--- a/total_sum_sum.xlsx
+++ b/total_sum_sum.xlsx
@@ -471,53 +471,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>Product Baxtishod</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53343.00</t>
+          <t>29000.00</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45687.37135111552</v>
+        <v>45687.83692809731</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>213372.00</t>
+          <t>145000.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Product 2</t>
+          <t>Product Baxtishod</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32000.00</t>
+          <t>30000.00</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45687.78773686659</v>
+        <v>45687.83692812049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>192000.00</t>
+          <t>210000.00</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>405372.00</t>
+          <t>355000.00</t>
         </is>
       </c>
     </row>

--- a/total_sum_sum.xlsx
+++ b/total_sum_sum.xlsx
@@ -471,53 +471,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Product Baxtishod</t>
+          <t>Product</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29000.00</t>
+          <t>53343.00</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45687.83692809731</v>
+        <v>45687.37135111552</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>145000.00</t>
+          <t>213372.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Product Baxtishod</t>
+          <t>Product 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30000.00</t>
+          <t>32000.00</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45687.83692812049</v>
+        <v>45687.78773686659</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>210000.00</t>
+          <t>192000.00</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>355000.00</t>
+          <t>405372.00</t>
         </is>
       </c>
     </row>

--- a/total_sum_sum.xlsx
+++ b/total_sum_sum.xlsx
@@ -524,7 +524,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total (SUM)</t>
+          <t>Итого (SUM)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
